--- a/ciyu_data.xlsx
+++ b/ciyu_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\myproject\qicaiketang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF4378A-D2DE-436B-A37A-B0A8AA6810C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02C55743-FF6B-4C3D-B00A-5E70C4338F7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10095" yWindow="4695" windowWidth="38400" windowHeight="6300" xr2:uid="{397FAC00-C01B-495C-AA57-EEBC15165758}"/>
+    <workbookView xWindow="0" yWindow="1560" windowWidth="38400" windowHeight="6300" xr2:uid="{397FAC00-C01B-495C-AA57-EEBC15165758}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -300,9 +300,6 @@
     <t>笛</t>
   </si>
   <si>
-    <t>"笛笛", "笛子", "长笛", "警笛", "汽笛"</t>
-  </si>
-  <si>
     <t>迪，油</t>
   </si>
   <si>
@@ -489,9 +486,6 @@
     <t>"葡萄", "苟且"</t>
   </si>
   <si>
-    <t>"残阳", "残菊", "残缺不全", "残忍"</t>
-  </si>
-  <si>
     <t>"卑贱", "浅滩"</t>
   </si>
   <si>
@@ -1119,9 +1113,6 @@
     <t>"末尾", "朱砂"</t>
   </si>
   <si>
-    <t>"磨刀", "磨练", "折磨", "消磨", "磨灭"</t>
-  </si>
-  <si>
     <t>"摩擦", "魔鬼"</t>
   </si>
   <si>
@@ -1732,9 +1723,6 @@
   </si>
   <si>
     <t>"木头", "本来"</t>
-  </si>
-  <si>
-    <t>"争奇斗艳", "战斗", "斗智", "斗智"</t>
   </si>
   <si>
     <t>"抖动", "头脑"</t>
@@ -2461,6 +2449,22 @@
   </si>
   <si>
     <t>todo：乘剌是什么？书上一个错别字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"口笛", "笛子", "长笛", "警笛", "汽笛"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"残阳", "残局", "残缺不全", "残忍"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"磨刀", "磨炼", "折磨", "消磨", "磨灭"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"争奇斗艳", "战斗", "斗智", "斗嘴"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2827,8 +2831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C74CF00-8A90-453C-8D2D-BDA172E5B9AC}">
   <dimension ref="A1:AA251"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
+      <selection activeCell="E244" sqref="E244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3275,13 +3279,13 @@
         <v>3</v>
       </c>
       <c r="E17" t="s">
+        <v>803</v>
+      </c>
+      <c r="F17" t="s">
         <v>87</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>88</v>
-      </c>
-      <c r="G17" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -3289,7 +3293,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -3298,13 +3302,13 @@
         <v>3</v>
       </c>
       <c r="E18" t="s">
+        <v>90</v>
+      </c>
+      <c r="F18" t="s">
         <v>91</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>92</v>
-      </c>
-      <c r="G18" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -3312,7 +3316,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C19">
         <v>2</v>
@@ -3321,13 +3325,13 @@
         <v>3</v>
       </c>
       <c r="E19" t="s">
+        <v>94</v>
+      </c>
+      <c r="F19" t="s">
         <v>95</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>96</v>
-      </c>
-      <c r="G19" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -3335,7 +3339,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -3344,13 +3348,13 @@
         <v>3</v>
       </c>
       <c r="E20" t="s">
+        <v>98</v>
+      </c>
+      <c r="F20" t="s">
         <v>99</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>100</v>
-      </c>
-      <c r="G20" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -3358,7 +3362,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C21">
         <v>2</v>
@@ -3367,13 +3371,13 @@
         <v>3</v>
       </c>
       <c r="E21" t="s">
+        <v>102</v>
+      </c>
+      <c r="F21" t="s">
         <v>103</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>104</v>
-      </c>
-      <c r="G21" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -3381,7 +3385,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C22">
         <v>2</v>
@@ -3390,13 +3394,13 @@
         <v>3</v>
       </c>
       <c r="E22" t="s">
+        <v>106</v>
+      </c>
+      <c r="F22" t="s">
         <v>107</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>108</v>
-      </c>
-      <c r="G22" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -3404,7 +3408,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C23">
         <v>2</v>
@@ -3413,13 +3417,13 @@
         <v>3</v>
       </c>
       <c r="E23" t="s">
+        <v>110</v>
+      </c>
+      <c r="F23" t="s">
         <v>111</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>112</v>
-      </c>
-      <c r="G23" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -3427,7 +3431,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -3436,13 +3440,13 @@
         <v>3</v>
       </c>
       <c r="E24" t="s">
+        <v>114</v>
+      </c>
+      <c r="F24" t="s">
         <v>115</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>116</v>
-      </c>
-      <c r="G24" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -3450,7 +3454,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -3459,13 +3463,13 @@
         <v>3</v>
       </c>
       <c r="E25" t="s">
+        <v>118</v>
+      </c>
+      <c r="F25" t="s">
         <v>119</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>120</v>
-      </c>
-      <c r="G25" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -3473,7 +3477,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -3482,13 +3486,13 @@
         <v>3</v>
       </c>
       <c r="E26" t="s">
+        <v>122</v>
+      </c>
+      <c r="F26" t="s">
         <v>123</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>124</v>
-      </c>
-      <c r="G26" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -3496,7 +3500,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C27">
         <v>2</v>
@@ -3505,13 +3509,13 @@
         <v>3</v>
       </c>
       <c r="E27" t="s">
+        <v>126</v>
+      </c>
+      <c r="F27" t="s">
         <v>127</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>128</v>
-      </c>
-      <c r="G27" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -3519,7 +3523,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C28">
         <v>4</v>
@@ -3528,10 +3532,10 @@
         <v>3</v>
       </c>
       <c r="E28" t="s">
+        <v>130</v>
+      </c>
+      <c r="G28" t="s">
         <v>131</v>
-      </c>
-      <c r="G28" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -3539,7 +3543,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C29">
         <v>4</v>
@@ -3548,10 +3552,10 @@
         <v>3</v>
       </c>
       <c r="E29" t="s">
+        <v>133</v>
+      </c>
+      <c r="G29" t="s">
         <v>134</v>
-      </c>
-      <c r="G29" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -3559,7 +3563,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C30">
         <v>4</v>
@@ -3568,10 +3572,10 @@
         <v>3</v>
       </c>
       <c r="E30" t="s">
+        <v>136</v>
+      </c>
+      <c r="G30" t="s">
         <v>137</v>
-      </c>
-      <c r="G30" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -3579,7 +3583,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C31">
         <v>4</v>
@@ -3588,10 +3592,10 @@
         <v>3</v>
       </c>
       <c r="E31" t="s">
+        <v>139</v>
+      </c>
+      <c r="G31" t="s">
         <v>140</v>
-      </c>
-      <c r="G31" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -3599,7 +3603,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="C32">
         <v>4</v>
@@ -3608,10 +3612,10 @@
         <v>3</v>
       </c>
       <c r="E32" t="s">
+        <v>141</v>
+      </c>
+      <c r="G32" t="s">
         <v>142</v>
-      </c>
-      <c r="G32" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -3619,7 +3623,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="C33">
         <v>4</v>
@@ -3628,10 +3632,10 @@
         <v>3</v>
       </c>
       <c r="E33" t="s">
+        <v>143</v>
+      </c>
+      <c r="G33" t="s">
         <v>144</v>
-      </c>
-      <c r="G33" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -3639,7 +3643,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="C34">
         <v>4</v>
@@ -3648,10 +3652,10 @@
         <v>3</v>
       </c>
       <c r="E34" t="s">
+        <v>145</v>
+      </c>
+      <c r="G34" t="s">
         <v>146</v>
-      </c>
-      <c r="G34" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -3659,7 +3663,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -3668,10 +3672,10 @@
         <v>3</v>
       </c>
       <c r="E35" t="s">
+        <v>147</v>
+      </c>
+      <c r="G35" t="s">
         <v>148</v>
-      </c>
-      <c r="G35" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -3679,7 +3683,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -3688,10 +3692,10 @@
         <v>3</v>
       </c>
       <c r="E36" t="s">
-        <v>150</v>
+        <v>804</v>
       </c>
       <c r="G36" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -3699,7 +3703,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="C37">
         <v>4</v>
@@ -3708,10 +3712,10 @@
         <v>3</v>
       </c>
       <c r="E37" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G37" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -3719,7 +3723,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="C38">
         <v>4</v>
@@ -3728,10 +3732,10 @@
         <v>3</v>
       </c>
       <c r="E38" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G38" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
@@ -3739,7 +3743,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="C39">
         <v>4</v>
@@ -3748,10 +3752,10 @@
         <v>3</v>
       </c>
       <c r="E39" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G39" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
@@ -3759,7 +3763,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="C40">
         <v>4</v>
@@ -3768,10 +3772,10 @@
         <v>3</v>
       </c>
       <c r="E40" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G40" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
@@ -3779,7 +3783,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="C41">
         <v>5</v>
@@ -3788,10 +3792,10 @@
         <v>3</v>
       </c>
       <c r="E41" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G41" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
@@ -3799,7 +3803,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="C42">
         <v>5</v>
@@ -3808,10 +3812,10 @@
         <v>3</v>
       </c>
       <c r="E42" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G42" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -3819,7 +3823,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="C43">
         <v>5</v>
@@ -3828,10 +3832,10 @@
         <v>3</v>
       </c>
       <c r="E43" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G43" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -3839,7 +3843,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="C44">
         <v>5</v>
@@ -3848,10 +3852,10 @@
         <v>3</v>
       </c>
       <c r="E44" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G44" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
@@ -3859,7 +3863,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="C45">
         <v>5</v>
@@ -3868,10 +3872,10 @@
         <v>3</v>
       </c>
       <c r="E45" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G45" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
@@ -3879,7 +3883,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="C46">
         <v>5</v>
@@ -3888,10 +3892,10 @@
         <v>3</v>
       </c>
       <c r="E46" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G46" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -3899,7 +3903,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="C47">
         <v>5</v>
@@ -3908,10 +3912,10 @@
         <v>3</v>
       </c>
       <c r="E47" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G47" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
@@ -3919,7 +3923,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="C48">
         <v>5</v>
@@ -3928,10 +3932,10 @@
         <v>3</v>
       </c>
       <c r="E48" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G48" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
@@ -3939,7 +3943,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="C49">
         <v>5</v>
@@ -3948,10 +3952,10 @@
         <v>3</v>
       </c>
       <c r="E49" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G49" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
@@ -3959,7 +3963,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="C50">
         <v>5</v>
@@ -3968,10 +3972,10 @@
         <v>3</v>
       </c>
       <c r="E50" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G50" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
@@ -3979,7 +3983,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="C51">
         <v>5</v>
@@ -3988,10 +3992,10 @@
         <v>3</v>
       </c>
       <c r="E51" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G51" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
@@ -3999,7 +4003,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="C52">
         <v>5</v>
@@ -4008,10 +4012,10 @@
         <v>3</v>
       </c>
       <c r="E52" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G52" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
@@ -4019,7 +4023,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="C53">
         <v>5</v>
@@ -4028,10 +4032,10 @@
         <v>3</v>
       </c>
       <c r="E53" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G53" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
@@ -4039,7 +4043,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="C54">
         <v>6</v>
@@ -4048,10 +4052,10 @@
         <v>3</v>
       </c>
       <c r="E54" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G54" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
@@ -4059,7 +4063,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="C55">
         <v>6</v>
@@ -4068,10 +4072,10 @@
         <v>3</v>
       </c>
       <c r="E55" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G55" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
@@ -4079,7 +4083,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="C56">
         <v>6</v>
@@ -4088,10 +4092,10 @@
         <v>3</v>
       </c>
       <c r="E56" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G56" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
@@ -4099,7 +4103,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="C57">
         <v>6</v>
@@ -4108,10 +4112,10 @@
         <v>3</v>
       </c>
       <c r="E57" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G57" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
@@ -4119,7 +4123,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="C58">
         <v>6</v>
@@ -4128,10 +4132,10 @@
         <v>3</v>
       </c>
       <c r="E58" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G58" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
@@ -4139,7 +4143,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="C59">
         <v>6</v>
@@ -4148,10 +4152,10 @@
         <v>3</v>
       </c>
       <c r="E59" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G59" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
@@ -4159,7 +4163,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="C60">
         <v>6</v>
@@ -4168,10 +4172,10 @@
         <v>3</v>
       </c>
       <c r="E60" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G60" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
@@ -4179,7 +4183,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="C61">
         <v>6</v>
@@ -4188,10 +4192,10 @@
         <v>3</v>
       </c>
       <c r="E61" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G61" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
@@ -4199,7 +4203,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="C62">
         <v>6</v>
@@ -4208,10 +4212,10 @@
         <v>3</v>
       </c>
       <c r="E62" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G62" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
@@ -4219,7 +4223,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="C63">
         <v>6</v>
@@ -4228,10 +4232,10 @@
         <v>3</v>
       </c>
       <c r="E63" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G63" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
@@ -4239,7 +4243,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="C64">
         <v>6</v>
@@ -4248,10 +4252,10 @@
         <v>3</v>
       </c>
       <c r="E64" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G64" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
@@ -4259,7 +4263,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="C65">
         <v>6</v>
@@ -4268,10 +4272,10 @@
         <v>3</v>
       </c>
       <c r="E65" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G65" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
@@ -4279,7 +4283,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="C66">
         <v>6</v>
@@ -4288,10 +4292,10 @@
         <v>3</v>
       </c>
       <c r="E66" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G66" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
@@ -4299,7 +4303,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="C67">
         <v>8</v>
@@ -4308,10 +4312,10 @@
         <v>3</v>
       </c>
       <c r="E67" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G67" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
@@ -4319,7 +4323,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="C68">
         <v>8</v>
@@ -4328,10 +4332,10 @@
         <v>3</v>
       </c>
       <c r="E68" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G68" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
@@ -4339,7 +4343,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="C69">
         <v>8</v>
@@ -4348,10 +4352,10 @@
         <v>3</v>
       </c>
       <c r="E69" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G69" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
@@ -4359,7 +4363,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="C70">
         <v>8</v>
@@ -4368,10 +4372,10 @@
         <v>3</v>
       </c>
       <c r="E70" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G70" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
@@ -4379,7 +4383,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="C71">
         <v>8</v>
@@ -4388,10 +4392,10 @@
         <v>3</v>
       </c>
       <c r="E71" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G71" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
@@ -4399,7 +4403,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="C72">
         <v>8</v>
@@ -4408,10 +4412,10 @@
         <v>3</v>
       </c>
       <c r="E72" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G72" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
@@ -4419,7 +4423,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="C73">
         <v>8</v>
@@ -4428,10 +4432,10 @@
         <v>3</v>
       </c>
       <c r="E73" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G73" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
@@ -4439,7 +4443,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="C74">
         <v>8</v>
@@ -4448,10 +4452,10 @@
         <v>3</v>
       </c>
       <c r="E74" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G74" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
@@ -4459,7 +4463,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="C75">
         <v>8</v>
@@ -4468,10 +4472,10 @@
         <v>3</v>
       </c>
       <c r="E75" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G75" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
@@ -4479,7 +4483,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="C76">
         <v>8</v>
@@ -4488,10 +4492,10 @@
         <v>3</v>
       </c>
       <c r="E76" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G76" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
@@ -4499,7 +4503,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="C77">
         <v>8</v>
@@ -4508,10 +4512,10 @@
         <v>3</v>
       </c>
       <c r="E77" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G77" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
@@ -4519,7 +4523,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="C78">
         <v>8</v>
@@ -4528,10 +4532,10 @@
         <v>3</v>
       </c>
       <c r="E78" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G78" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
@@ -4539,7 +4543,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="C79">
         <v>8</v>
@@ -4548,10 +4552,10 @@
         <v>3</v>
       </c>
       <c r="E79" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G79" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
@@ -4559,7 +4563,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="C80">
         <v>10</v>
@@ -4568,10 +4572,10 @@
         <v>3</v>
       </c>
       <c r="E80" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G80" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
@@ -4579,7 +4583,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="C81">
         <v>10</v>
@@ -4588,10 +4592,10 @@
         <v>3</v>
       </c>
       <c r="E81" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G81" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
@@ -4599,7 +4603,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="C82">
         <v>10</v>
@@ -4608,10 +4612,10 @@
         <v>3</v>
       </c>
       <c r="E82" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G82" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
@@ -4619,7 +4623,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="C83">
         <v>10</v>
@@ -4628,10 +4632,10 @@
         <v>3</v>
       </c>
       <c r="E83" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G83" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
@@ -4639,7 +4643,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="C84">
         <v>10</v>
@@ -4648,10 +4652,10 @@
         <v>3</v>
       </c>
       <c r="E84" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G84" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
@@ -4659,7 +4663,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="C85">
         <v>10</v>
@@ -4668,10 +4672,10 @@
         <v>3</v>
       </c>
       <c r="E85" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G85" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
@@ -4679,7 +4683,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="C86">
         <v>10</v>
@@ -4688,10 +4692,10 @@
         <v>3</v>
       </c>
       <c r="E86" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G86" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
@@ -4699,7 +4703,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="C87">
         <v>10</v>
@@ -4708,10 +4712,10 @@
         <v>3</v>
       </c>
       <c r="E87" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G87" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
@@ -4719,7 +4723,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="C88">
         <v>10</v>
@@ -4728,10 +4732,10 @@
         <v>3</v>
       </c>
       <c r="E88" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G88" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
@@ -4739,7 +4743,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="C89">
         <v>10</v>
@@ -4748,10 +4752,10 @@
         <v>3</v>
       </c>
       <c r="E89" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G89" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
@@ -4759,7 +4763,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="C90">
         <v>10</v>
@@ -4768,10 +4772,10 @@
         <v>3</v>
       </c>
       <c r="E90" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G90" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
@@ -4779,7 +4783,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="C91">
         <v>10</v>
@@ -4788,10 +4792,10 @@
         <v>3</v>
       </c>
       <c r="E91" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G91" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
@@ -4799,7 +4803,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="C92">
         <v>10</v>
@@ -4808,10 +4812,10 @@
         <v>3</v>
       </c>
       <c r="E92" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G92" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
@@ -4819,7 +4823,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="C93">
         <v>12</v>
@@ -4828,10 +4832,10 @@
         <v>3</v>
       </c>
       <c r="E93" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G93" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
@@ -4839,7 +4843,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="C94">
         <v>12</v>
@@ -4848,10 +4852,10 @@
         <v>3</v>
       </c>
       <c r="E94" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G94" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
@@ -4859,7 +4863,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="C95">
         <v>12</v>
@@ -4868,10 +4872,10 @@
         <v>3</v>
       </c>
       <c r="E95" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G95" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
@@ -4879,7 +4883,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="C96">
         <v>12</v>
@@ -4888,10 +4892,10 @@
         <v>3</v>
       </c>
       <c r="E96" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G96" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
@@ -4899,7 +4903,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C97">
         <v>12</v>
@@ -4908,10 +4912,10 @@
         <v>3</v>
       </c>
       <c r="E97" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G97" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
@@ -4919,7 +4923,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="C98">
         <v>12</v>
@@ -4928,10 +4932,10 @@
         <v>3</v>
       </c>
       <c r="E98" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G98" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
@@ -4939,7 +4943,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="C99">
         <v>12</v>
@@ -4948,10 +4952,10 @@
         <v>3</v>
       </c>
       <c r="E99" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G99" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
@@ -4959,7 +4963,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="C100">
         <v>12</v>
@@ -4968,10 +4972,10 @@
         <v>3</v>
       </c>
       <c r="E100" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G100" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
@@ -4979,7 +4983,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="C101">
         <v>12</v>
@@ -4988,10 +4992,10 @@
         <v>3</v>
       </c>
       <c r="E101" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G101" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
@@ -4999,7 +5003,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="C102">
         <v>12</v>
@@ -5008,10 +5012,10 @@
         <v>3</v>
       </c>
       <c r="E102" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G102" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
@@ -5019,7 +5023,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="C103">
         <v>12</v>
@@ -5028,10 +5032,10 @@
         <v>3</v>
       </c>
       <c r="E103" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G103" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
@@ -5039,7 +5043,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="C104">
         <v>12</v>
@@ -5048,10 +5052,10 @@
         <v>3</v>
       </c>
       <c r="E104" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G104" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
@@ -5059,7 +5063,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="C105">
         <v>12</v>
@@ -5068,10 +5072,10 @@
         <v>3</v>
       </c>
       <c r="E105" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G105" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
@@ -5079,7 +5083,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="C106">
         <v>15</v>
@@ -5088,10 +5092,10 @@
         <v>3</v>
       </c>
       <c r="E106" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G106" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
@@ -5099,7 +5103,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="C107">
         <v>15</v>
@@ -5108,10 +5112,10 @@
         <v>3</v>
       </c>
       <c r="E107" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G107" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
@@ -5119,7 +5123,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="C108">
         <v>15</v>
@@ -5128,10 +5132,10 @@
         <v>3</v>
       </c>
       <c r="E108" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G108" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
@@ -5139,7 +5143,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="C109">
         <v>15</v>
@@ -5148,10 +5152,10 @@
         <v>3</v>
       </c>
       <c r="E109" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G109" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
@@ -5159,7 +5163,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="C110">
         <v>15</v>
@@ -5168,10 +5172,10 @@
         <v>3</v>
       </c>
       <c r="E110" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="G110" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
@@ -5179,7 +5183,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="C111">
         <v>15</v>
@@ -5188,10 +5192,10 @@
         <v>3</v>
       </c>
       <c r="E111" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G111" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
@@ -5199,7 +5203,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="C112">
         <v>15</v>
@@ -5208,10 +5212,10 @@
         <v>3</v>
       </c>
       <c r="E112" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G112" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
@@ -5219,7 +5223,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="C113">
         <v>15</v>
@@ -5228,10 +5232,10 @@
         <v>3</v>
       </c>
       <c r="E113" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G113" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
@@ -5239,7 +5243,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="C114">
         <v>15</v>
@@ -5248,10 +5252,10 @@
         <v>3</v>
       </c>
       <c r="E114" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G114" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
@@ -5259,7 +5263,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="C115">
         <v>15</v>
@@ -5268,10 +5272,10 @@
         <v>3</v>
       </c>
       <c r="E115" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G115" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
@@ -5279,7 +5283,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="C116">
         <v>15</v>
@@ -5288,10 +5292,10 @@
         <v>3</v>
       </c>
       <c r="E116" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G116" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
@@ -5299,7 +5303,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="C117">
         <v>15</v>
@@ -5308,10 +5312,10 @@
         <v>3</v>
       </c>
       <c r="E117" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G117" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
@@ -5319,7 +5323,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="C118">
         <v>15</v>
@@ -5328,10 +5332,10 @@
         <v>3</v>
       </c>
       <c r="E118" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G118" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
@@ -5339,7 +5343,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="C119">
         <v>16</v>
@@ -5348,10 +5352,10 @@
         <v>3</v>
       </c>
       <c r="E119" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G119" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
@@ -5359,7 +5363,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="C120">
         <v>16</v>
@@ -5368,10 +5372,10 @@
         <v>3</v>
       </c>
       <c r="E120" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G120" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
@@ -5379,7 +5383,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="C121">
         <v>16</v>
@@ -5388,10 +5392,10 @@
         <v>3</v>
       </c>
       <c r="E121" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G121" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
@@ -5399,7 +5403,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="C122">
         <v>16</v>
@@ -5408,10 +5412,10 @@
         <v>3</v>
       </c>
       <c r="E122" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G122" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
@@ -5419,7 +5423,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="C123">
         <v>16</v>
@@ -5428,10 +5432,10 @@
         <v>3</v>
       </c>
       <c r="E123" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G123" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
@@ -5439,7 +5443,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="C124">
         <v>16</v>
@@ -5448,10 +5452,10 @@
         <v>3</v>
       </c>
       <c r="E124" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G124" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
@@ -5459,7 +5463,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="C125">
         <v>16</v>
@@ -5468,10 +5472,10 @@
         <v>3</v>
       </c>
       <c r="E125" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G125" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
@@ -5479,7 +5483,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="C126">
         <v>16</v>
@@ -5488,10 +5492,10 @@
         <v>3</v>
       </c>
       <c r="E126" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="G126" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
@@ -5499,7 +5503,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="C127">
         <v>16</v>
@@ -5508,13 +5512,13 @@
         <v>3</v>
       </c>
       <c r="E127" t="s">
+        <v>329</v>
+      </c>
+      <c r="G127" t="s">
+        <v>330</v>
+      </c>
+      <c r="H127" t="s">
         <v>331</v>
-      </c>
-      <c r="G127" t="s">
-        <v>332</v>
-      </c>
-      <c r="H127" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
@@ -5522,7 +5526,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="C128">
         <v>16</v>
@@ -5531,10 +5535,10 @@
         <v>3</v>
       </c>
       <c r="E128" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G128" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
@@ -5542,7 +5546,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="C129">
         <v>16</v>
@@ -5551,10 +5555,10 @@
         <v>3</v>
       </c>
       <c r="E129" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G129" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
@@ -5562,7 +5566,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="C130">
         <v>16</v>
@@ -5571,10 +5575,10 @@
         <v>3</v>
       </c>
       <c r="E130" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G130" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
@@ -5582,7 +5586,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="C131">
         <v>16</v>
@@ -5591,10 +5595,10 @@
         <v>3</v>
       </c>
       <c r="E131" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G131" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
@@ -5602,7 +5606,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="C132">
         <v>17</v>
@@ -5611,10 +5615,10 @@
         <v>3</v>
       </c>
       <c r="E132" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G132" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
@@ -5622,7 +5626,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="C133">
         <v>17</v>
@@ -5631,10 +5635,10 @@
         <v>3</v>
       </c>
       <c r="E133" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G133" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
@@ -5642,7 +5646,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="C134">
         <v>17</v>
@@ -5651,10 +5655,10 @@
         <v>3</v>
       </c>
       <c r="E134" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G134" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
@@ -5662,7 +5666,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="C135">
         <v>17</v>
@@ -5671,10 +5675,10 @@
         <v>3</v>
       </c>
       <c r="E135" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G135" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
@@ -5682,7 +5686,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="C136">
         <v>17</v>
@@ -5691,10 +5695,10 @@
         <v>3</v>
       </c>
       <c r="E136" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G136" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
@@ -5702,7 +5706,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="C137">
         <v>17</v>
@@ -5711,10 +5715,10 @@
         <v>3</v>
       </c>
       <c r="E137" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G137" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
@@ -5722,7 +5726,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="C138">
         <v>17</v>
@@ -5731,10 +5735,10 @@
         <v>3</v>
       </c>
       <c r="E138" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G138" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
@@ -5742,7 +5746,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="C139">
         <v>17</v>
@@ -5751,10 +5755,10 @@
         <v>3</v>
       </c>
       <c r="E139" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G139" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
@@ -5762,7 +5766,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="C140">
         <v>17</v>
@@ -5771,10 +5775,10 @@
         <v>3</v>
       </c>
       <c r="E140" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G140" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
@@ -5782,7 +5786,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="C141">
         <v>17</v>
@@ -5791,10 +5795,10 @@
         <v>3</v>
       </c>
       <c r="E141" t="s">
-        <v>360</v>
+        <v>805</v>
       </c>
       <c r="G141" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
@@ -5802,7 +5806,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="C142">
         <v>17</v>
@@ -5811,10 +5815,10 @@
         <v>3</v>
       </c>
       <c r="E142" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G142" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
@@ -5822,7 +5826,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="C143">
         <v>17</v>
@@ -5831,10 +5835,10 @@
         <v>3</v>
       </c>
       <c r="E143" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G143" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
@@ -5842,7 +5846,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="C144">
         <v>17</v>
@@ -5851,10 +5855,10 @@
         <v>3</v>
       </c>
       <c r="E144" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G144" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
@@ -5862,7 +5866,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="C145">
         <v>18</v>
@@ -5871,10 +5875,10 @@
         <v>3</v>
       </c>
       <c r="E145" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G145" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
@@ -5882,7 +5886,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="C146">
         <v>18</v>
@@ -5891,10 +5895,10 @@
         <v>3</v>
       </c>
       <c r="E146" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G146" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
@@ -5902,7 +5906,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="C147">
         <v>18</v>
@@ -5911,10 +5915,10 @@
         <v>3</v>
       </c>
       <c r="E147" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G147" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
@@ -5922,7 +5926,7 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="C148">
         <v>18</v>
@@ -5931,10 +5935,10 @@
         <v>3</v>
       </c>
       <c r="E148" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G148" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
@@ -5942,7 +5946,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="C149">
         <v>18</v>
@@ -5951,10 +5955,10 @@
         <v>3</v>
       </c>
       <c r="E149" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G149" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
@@ -5962,7 +5966,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="C150">
         <v>18</v>
@@ -5971,10 +5975,10 @@
         <v>3</v>
       </c>
       <c r="E150" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G150" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
@@ -5982,7 +5986,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="C151">
         <v>18</v>
@@ -5991,10 +5995,10 @@
         <v>3</v>
       </c>
       <c r="E151" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G151" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
@@ -6002,7 +6006,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="C152">
         <v>18</v>
@@ -6011,13 +6015,13 @@
         <v>3</v>
       </c>
       <c r="E152" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G152" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H152" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
@@ -6025,7 +6029,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="C153">
         <v>18</v>
@@ -6034,10 +6038,10 @@
         <v>3</v>
       </c>
       <c r="E153" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G153" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
@@ -6045,7 +6049,7 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="C154">
         <v>18</v>
@@ -6054,10 +6058,10 @@
         <v>3</v>
       </c>
       <c r="E154" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G154" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
@@ -6065,7 +6069,7 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="C155">
         <v>18</v>
@@ -6074,10 +6078,10 @@
         <v>3</v>
       </c>
       <c r="E155" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G155" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
@@ -6085,7 +6089,7 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="C156">
         <v>18</v>
@@ -6094,10 +6098,10 @@
         <v>3</v>
       </c>
       <c r="E156" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G156" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
@@ -6105,7 +6109,7 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="C157">
         <v>18</v>
@@ -6114,10 +6118,10 @@
         <v>3</v>
       </c>
       <c r="E157" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G157" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
@@ -6125,7 +6129,7 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C158">
         <v>19</v>
@@ -6134,10 +6138,10 @@
         <v>3</v>
       </c>
       <c r="E158" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G158" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
@@ -6145,7 +6149,7 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="C159">
         <v>19</v>
@@ -6154,10 +6158,10 @@
         <v>3</v>
       </c>
       <c r="E159" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G159" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
@@ -6165,7 +6169,7 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C160">
         <v>19</v>
@@ -6174,10 +6178,10 @@
         <v>3</v>
       </c>
       <c r="E160" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G160" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
@@ -6185,7 +6189,7 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="C161">
         <v>19</v>
@@ -6194,10 +6198,10 @@
         <v>3</v>
       </c>
       <c r="E161" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G161" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
@@ -6205,7 +6209,7 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="C162">
         <v>19</v>
@@ -6214,10 +6218,10 @@
         <v>3</v>
       </c>
       <c r="E162" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G162" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
@@ -6225,7 +6229,7 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="C163">
         <v>19</v>
@@ -6234,10 +6238,10 @@
         <v>3</v>
       </c>
       <c r="E163" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G163" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
@@ -6245,7 +6249,7 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="C164">
         <v>19</v>
@@ -6254,10 +6258,10 @@
         <v>3</v>
       </c>
       <c r="E164" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G164" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
@@ -6265,7 +6269,7 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="C165">
         <v>19</v>
@@ -6274,10 +6278,10 @@
         <v>3</v>
       </c>
       <c r="E165" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G165" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
@@ -6285,7 +6289,7 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="C166">
         <v>19</v>
@@ -6294,10 +6298,10 @@
         <v>3</v>
       </c>
       <c r="E166" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G166" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.2">
@@ -6305,7 +6309,7 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="C167">
         <v>19</v>
@@ -6314,10 +6318,10 @@
         <v>3</v>
       </c>
       <c r="E167" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G167" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.2">
@@ -6325,7 +6329,7 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="C168">
         <v>19</v>
@@ -6334,10 +6338,10 @@
         <v>3</v>
       </c>
       <c r="E168" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G168" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.2">
@@ -6345,7 +6349,7 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C169">
         <v>19</v>
@@ -6354,10 +6358,10 @@
         <v>3</v>
       </c>
       <c r="E169" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G169" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.2">
@@ -6365,7 +6369,7 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="C170">
         <v>19</v>
@@ -6374,10 +6378,10 @@
         <v>3</v>
       </c>
       <c r="E170" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G170" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.2">
@@ -6385,7 +6389,7 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="C171">
         <v>20</v>
@@ -6394,10 +6398,10 @@
         <v>3</v>
       </c>
       <c r="E171" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="G171" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.2">
@@ -6405,7 +6409,7 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="C172">
         <v>20</v>
@@ -6414,10 +6418,10 @@
         <v>3</v>
       </c>
       <c r="E172" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G172" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.2">
@@ -6425,7 +6429,7 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="C173">
         <v>20</v>
@@ -6434,10 +6438,10 @@
         <v>3</v>
       </c>
       <c r="E173" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G173" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.2">
@@ -6445,7 +6449,7 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="C174">
         <v>20</v>
@@ -6454,10 +6458,10 @@
         <v>3</v>
       </c>
       <c r="E174" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G174" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.2">
@@ -6465,7 +6469,7 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="C175">
         <v>20</v>
@@ -6474,10 +6478,10 @@
         <v>3</v>
       </c>
       <c r="E175" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G175" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.2">
@@ -6485,7 +6489,7 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="C176">
         <v>20</v>
@@ -6494,10 +6498,10 @@
         <v>3</v>
       </c>
       <c r="E176" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="G176" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.2">
@@ -6505,7 +6509,7 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="C177">
         <v>20</v>
@@ -6514,10 +6518,10 @@
         <v>3</v>
       </c>
       <c r="E177" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G177" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.2">
@@ -6525,7 +6529,7 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="C178">
         <v>20</v>
@@ -6534,10 +6538,10 @@
         <v>3</v>
       </c>
       <c r="E178" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G178" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.2">
@@ -6545,7 +6549,7 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="C179">
         <v>20</v>
@@ -6554,10 +6558,10 @@
         <v>3</v>
       </c>
       <c r="E179" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="G179" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.2">
@@ -6565,7 +6569,7 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="C180">
         <v>20</v>
@@ -6574,10 +6578,10 @@
         <v>3</v>
       </c>
       <c r="E180" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G180" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.2">
@@ -6585,7 +6589,7 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="C181">
         <v>20</v>
@@ -6594,10 +6598,10 @@
         <v>3</v>
       </c>
       <c r="E181" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="G181" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.2">
@@ -6605,7 +6609,7 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="C182">
         <v>20</v>
@@ -6614,10 +6618,10 @@
         <v>3</v>
       </c>
       <c r="E182" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="G182" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.2">
@@ -6625,7 +6629,7 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="C183">
         <v>20</v>
@@ -6634,10 +6638,10 @@
         <v>3</v>
       </c>
       <c r="E183" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="G183" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.2">
@@ -6645,7 +6649,7 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="C184">
         <v>21</v>
@@ -6654,10 +6658,10 @@
         <v>3</v>
       </c>
       <c r="E184" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="G184" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.2">
@@ -6665,7 +6669,7 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="C185">
         <v>21</v>
@@ -6674,10 +6678,10 @@
         <v>3</v>
       </c>
       <c r="E185" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="G185" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.2">
@@ -6685,7 +6689,7 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C186">
         <v>21</v>
@@ -6694,10 +6698,10 @@
         <v>3</v>
       </c>
       <c r="E186" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="G186" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.2">
@@ -6705,7 +6709,7 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="C187">
         <v>21</v>
@@ -6714,10 +6718,10 @@
         <v>3</v>
       </c>
       <c r="E187" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="G187" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.2">
@@ -6725,7 +6729,7 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="C188">
         <v>21</v>
@@ -6734,10 +6738,10 @@
         <v>3</v>
       </c>
       <c r="E188" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="G188" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.2">
@@ -6745,7 +6749,7 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="C189">
         <v>21</v>
@@ -6754,10 +6758,10 @@
         <v>3</v>
       </c>
       <c r="E189" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G189" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.2">
@@ -6765,7 +6769,7 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="C190">
         <v>21</v>
@@ -6774,10 +6778,10 @@
         <v>3</v>
       </c>
       <c r="E190" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="G190" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.2">
@@ -6785,7 +6789,7 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="C191">
         <v>21</v>
@@ -6794,10 +6798,10 @@
         <v>3</v>
       </c>
       <c r="E191" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="G191" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.2">
@@ -6805,7 +6809,7 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="C192">
         <v>21</v>
@@ -6814,10 +6818,10 @@
         <v>3</v>
       </c>
       <c r="E192" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="G192" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.2">
@@ -6825,7 +6829,7 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="C193">
         <v>21</v>
@@ -6834,10 +6838,10 @@
         <v>3</v>
       </c>
       <c r="E193" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="G193" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.2">
@@ -6845,7 +6849,7 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="C194">
         <v>21</v>
@@ -6854,10 +6858,10 @@
         <v>3</v>
       </c>
       <c r="E194" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="G194" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.2">
@@ -6865,7 +6869,7 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="C195">
         <v>21</v>
@@ -6874,10 +6878,10 @@
         <v>3</v>
       </c>
       <c r="E195" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="G195" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.2">
@@ -6885,7 +6889,7 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="C196">
         <v>21</v>
@@ -6894,10 +6898,10 @@
         <v>3</v>
       </c>
       <c r="E196" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="G196" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.2">
@@ -6905,7 +6909,7 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="C197">
         <v>22</v>
@@ -6914,10 +6918,10 @@
         <v>3</v>
       </c>
       <c r="E197" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="G197" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.2">
@@ -6925,7 +6929,7 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="C198">
         <v>22</v>
@@ -6934,10 +6938,10 @@
         <v>3</v>
       </c>
       <c r="E198" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="G198" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.2">
@@ -6945,7 +6949,7 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="C199">
         <v>22</v>
@@ -6954,10 +6958,10 @@
         <v>3</v>
       </c>
       <c r="E199" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="G199" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.2">
@@ -6965,7 +6969,7 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="C200">
         <v>22</v>
@@ -6974,10 +6978,10 @@
         <v>3</v>
       </c>
       <c r="E200" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="G200" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.2">
@@ -6985,7 +6989,7 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="C201">
         <v>22</v>
@@ -6994,10 +6998,10 @@
         <v>3</v>
       </c>
       <c r="E201" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="G201" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.2">
@@ -7005,7 +7009,7 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="C202">
         <v>22</v>
@@ -7014,10 +7018,10 @@
         <v>3</v>
       </c>
       <c r="E202" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="G202" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.2">
@@ -7025,7 +7029,7 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="C203">
         <v>22</v>
@@ -7034,13 +7038,13 @@
         <v>3</v>
       </c>
       <c r="E203" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="G203" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="H203" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.2">
@@ -7048,7 +7052,7 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="C204">
         <v>22</v>
@@ -7057,10 +7061,10 @@
         <v>3</v>
       </c>
       <c r="E204" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="G204" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.2">
@@ -7068,7 +7072,7 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="C205">
         <v>22</v>
@@ -7077,10 +7081,10 @@
         <v>3</v>
       </c>
       <c r="E205" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="G205" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.2">
@@ -7088,7 +7092,7 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="C206">
         <v>22</v>
@@ -7097,10 +7101,10 @@
         <v>3</v>
       </c>
       <c r="E206" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="G206" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.2">
@@ -7108,7 +7112,7 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="C207">
         <v>22</v>
@@ -7117,10 +7121,10 @@
         <v>3</v>
       </c>
       <c r="E207" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="G207" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.2">
@@ -7128,7 +7132,7 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="C208">
         <v>22</v>
@@ -7137,10 +7141,10 @@
         <v>3</v>
       </c>
       <c r="E208" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="G208" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.2">
@@ -7148,7 +7152,7 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="C209">
         <v>23</v>
@@ -7157,10 +7161,10 @@
         <v>3</v>
       </c>
       <c r="E209" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="G209" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.2">
@@ -7168,7 +7172,7 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="C210">
         <v>23</v>
@@ -7177,10 +7181,10 @@
         <v>3</v>
       </c>
       <c r="E210" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="G210" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.2">
@@ -7188,7 +7192,7 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="C211">
         <v>23</v>
@@ -7197,10 +7201,10 @@
         <v>3</v>
       </c>
       <c r="E211" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="G211" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.2">
@@ -7208,7 +7212,7 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="C212">
         <v>23</v>
@@ -7217,10 +7221,10 @@
         <v>3</v>
       </c>
       <c r="E212" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G212" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.2">
@@ -7228,7 +7232,7 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="C213">
         <v>23</v>
@@ -7237,10 +7241,10 @@
         <v>3</v>
       </c>
       <c r="E213" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G213" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.2">
@@ -7248,7 +7252,7 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="C214">
         <v>23</v>
@@ -7257,10 +7261,10 @@
         <v>3</v>
       </c>
       <c r="E214" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="G214" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.2">
@@ -7268,7 +7272,7 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="C215">
         <v>23</v>
@@ -7277,10 +7281,10 @@
         <v>3</v>
       </c>
       <c r="E215" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G215" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.2">
@@ -7288,7 +7292,7 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="C216">
         <v>23</v>
@@ -7297,10 +7301,10 @@
         <v>3</v>
       </c>
       <c r="E216" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="G216" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.2">
@@ -7308,7 +7312,7 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="C217">
         <v>23</v>
@@ -7317,10 +7321,10 @@
         <v>3</v>
       </c>
       <c r="E217" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="G217" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.2">
@@ -7328,7 +7332,7 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="C218">
         <v>23</v>
@@ -7337,10 +7341,10 @@
         <v>3</v>
       </c>
       <c r="E218" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="G218" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.2">
@@ -7348,7 +7352,7 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="C219">
         <v>23</v>
@@ -7357,10 +7361,10 @@
         <v>3</v>
       </c>
       <c r="E219" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="G219" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.2">
@@ -7368,7 +7372,7 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="C220">
         <v>23</v>
@@ -7377,10 +7381,10 @@
         <v>3</v>
       </c>
       <c r="E220" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="G220" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.2">
@@ -7388,7 +7392,7 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="C221">
         <v>23</v>
@@ -7397,10 +7401,10 @@
         <v>3</v>
       </c>
       <c r="E221" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="G221" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.2">
@@ -7408,7 +7412,7 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="C222">
         <v>24</v>
@@ -7417,10 +7421,10 @@
         <v>3</v>
       </c>
       <c r="E222" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="G222" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.2">
@@ -7428,7 +7432,7 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="C223">
         <v>24</v>
@@ -7437,10 +7441,10 @@
         <v>3</v>
       </c>
       <c r="E223" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="G223" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.2">
@@ -7448,7 +7452,7 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="C224">
         <v>24</v>
@@ -7457,10 +7461,10 @@
         <v>3</v>
       </c>
       <c r="E224" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="G224" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.2">
@@ -7468,7 +7472,7 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="C225">
         <v>24</v>
@@ -7477,10 +7481,10 @@
         <v>3</v>
       </c>
       <c r="E225" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="G225" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.2">
@@ -7488,7 +7492,7 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="C226">
         <v>24</v>
@@ -7497,10 +7501,10 @@
         <v>3</v>
       </c>
       <c r="E226" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="G226" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.2">
@@ -7508,7 +7512,7 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="C227">
         <v>24</v>
@@ -7517,10 +7521,10 @@
         <v>3</v>
       </c>
       <c r="E227" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="G227" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.2">
@@ -7528,7 +7532,7 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="C228">
         <v>24</v>
@@ -7537,10 +7541,10 @@
         <v>3</v>
       </c>
       <c r="E228" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="G228" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.2">
@@ -7548,7 +7552,7 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="C229">
         <v>25</v>
@@ -7557,10 +7561,10 @@
         <v>3</v>
       </c>
       <c r="E229" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="G229" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.2">
@@ -7568,7 +7572,7 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="C230">
         <v>25</v>
@@ -7577,10 +7581,10 @@
         <v>3</v>
       </c>
       <c r="E230" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="G230" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.2">
@@ -7588,7 +7592,7 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="C231">
         <v>25</v>
@@ -7597,10 +7601,10 @@
         <v>3</v>
       </c>
       <c r="E231" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="G231" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.2">
@@ -7608,7 +7612,7 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="C232">
         <v>25</v>
@@ -7617,10 +7621,10 @@
         <v>3</v>
       </c>
       <c r="E232" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="G232" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.2">
@@ -7628,7 +7632,7 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="C233">
         <v>25</v>
@@ -7637,10 +7641,10 @@
         <v>3</v>
       </c>
       <c r="E233" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="G233" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.2">
@@ -7648,7 +7652,7 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="C234">
         <v>25</v>
@@ -7657,10 +7661,10 @@
         <v>3</v>
       </c>
       <c r="E234" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="G234" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.2">
@@ -7668,7 +7672,7 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="C235">
         <v>25</v>
@@ -7677,10 +7681,10 @@
         <v>3</v>
       </c>
       <c r="E235" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="G235" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.2">
@@ -7688,7 +7692,7 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="C236">
         <v>25</v>
@@ -7697,10 +7701,10 @@
         <v>3</v>
       </c>
       <c r="E236" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="G236" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.2">
@@ -7708,7 +7712,7 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C237">
         <v>25</v>
@@ -7717,10 +7721,10 @@
         <v>3</v>
       </c>
       <c r="E237" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="G237" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.2">
@@ -7728,7 +7732,7 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="C238">
         <v>25</v>
@@ -7737,13 +7741,13 @@
         <v>3</v>
       </c>
       <c r="E238" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="G238" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="H238" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.2">
@@ -7751,7 +7755,7 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="C239">
         <v>25</v>
@@ -7760,10 +7764,10 @@
         <v>3</v>
       </c>
       <c r="E239" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="G239" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.2">
@@ -7771,7 +7775,7 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="C240">
         <v>25</v>
@@ -7780,10 +7784,10 @@
         <v>3</v>
       </c>
       <c r="E240" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="G240" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.2">
@@ -7791,7 +7795,7 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="C241">
         <v>25</v>
@@ -7800,10 +7804,10 @@
         <v>3</v>
       </c>
       <c r="E241" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="G241" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.2">
@@ -7811,7 +7815,7 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="C242">
         <v>26</v>
@@ -7820,10 +7824,10 @@
         <v>3</v>
       </c>
       <c r="E242" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="G242" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.2">
@@ -7831,7 +7835,7 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="C243">
         <v>26</v>
@@ -7840,13 +7844,13 @@
         <v>3</v>
       </c>
       <c r="E243" t="s">
-        <v>565</v>
+        <v>806</v>
       </c>
       <c r="G243" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="H243" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.2">
@@ -7854,7 +7858,7 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="C244">
         <v>26</v>
@@ -7863,10 +7867,10 @@
         <v>3</v>
       </c>
       <c r="E244" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="G244" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.2">
@@ -7874,7 +7878,7 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="C245">
         <v>26</v>
@@ -7883,10 +7887,10 @@
         <v>3</v>
       </c>
       <c r="E245" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="G245" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.2">
@@ -7894,7 +7898,7 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="C246">
         <v>26</v>
@@ -7903,10 +7907,10 @@
         <v>3</v>
       </c>
       <c r="E246" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="G246" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.2">
@@ -7914,7 +7918,7 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="C247">
         <v>26</v>
@@ -7923,10 +7927,10 @@
         <v>3</v>
       </c>
       <c r="E247" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="G247" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.2">
@@ -7934,7 +7938,7 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="C248">
         <v>26</v>
@@ -7943,10 +7947,10 @@
         <v>3</v>
       </c>
       <c r="E248" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="G248" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.2">
@@ -7954,7 +7958,7 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="C249">
         <v>26</v>
@@ -7963,10 +7967,10 @@
         <v>3</v>
       </c>
       <c r="E249" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="G249" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.2">
@@ -7974,7 +7978,7 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="C250">
         <v>26</v>
@@ -7983,10 +7987,10 @@
         <v>3</v>
       </c>
       <c r="E250" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="G250" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.2">
@@ -7994,7 +7998,7 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="C251">
         <v>26</v>
@@ -8003,10 +8007,10 @@
         <v>3</v>
       </c>
       <c r="E251" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="G251" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
     </row>
   </sheetData>
